--- a/Main results/HVD_diff.xlsx
+++ b/Main results/HVD_diff.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\GitHub\rstarBrookings2017\Main results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mac\Home\Documents\GitHub\rstarBrookings2017\Main results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF55439D-4248-4813-8B9C-9B1A09008A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A14A92-3536-40CD-A8D4-E317F55E1503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{90012FF5-3E3F-4D65-9D30-D98E29904BF1}"/>
   </bookViews>
@@ -7870,7 +7870,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -16629,8 +16629,8 @@
       <xdr:row>143</xdr:row>
       <xdr:rowOff>9585</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Ink 2">
@@ -16649,7 +16649,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Ink 2">
@@ -16771,8 +16771,8 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>157140</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Ink 2">
@@ -16791,7 +16791,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Ink 2">
@@ -17200,8 +17200,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CI132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="CG25" sqref="CG25"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="BF41" sqref="BF41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
